--- a/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
@@ -485,7 +485,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +600,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="8">
@@ -623,7 +623,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="9">
@@ -646,7 +646,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="12">
@@ -715,7 +715,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +738,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="14">
@@ -761,7 +761,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="15">
@@ -784,7 +784,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="17">
@@ -830,7 +830,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="19">
@@ -876,7 +876,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="20">
@@ -899,7 +899,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="21">
@@ -922,7 +922,7 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007172060743489314</v>
+        <v>39.76190476190476</v>
       </c>
     </row>
     <row r="22">
@@ -936,7 +936,7 @@
         <v>2.079473727118974</v>
       </c>
       <c r="D22" t="n">
-        <v>2.139337574243696</v>
+        <v>2.136793603657316</v>
       </c>
       <c r="E22" t="n">
         <v>2500</v>
@@ -945,7 +945,7 @@
         <v>0.4509379509379509</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007157745252983348</v>
+        <v>39.68253968253968</v>
       </c>
     </row>
     <row r="23">
@@ -959,7 +959,7 @@
         <v>2.080684736272763</v>
       </c>
       <c r="D23" t="n">
-        <v>2.139337574243696</v>
+        <v>2.136280133796781</v>
       </c>
       <c r="E23" t="n">
         <v>2494</v>
@@ -968,7 +968,7 @@
         <v>0.4498556998556998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007140566664376188</v>
+        <v>39.58730158730159</v>
       </c>
     </row>
     <row r="24">
@@ -982,7 +982,7 @@
         <v>2.082167649868273</v>
       </c>
       <c r="D24" t="n">
-        <v>2.139337574243696</v>
+        <v>2.13555450967014</v>
       </c>
       <c r="E24" t="n">
         <v>2481</v>
@@ -991,7 +991,7 @@
         <v>0.4475108225108225</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007103346389060675</v>
+        <v>39.38095238095238</v>
       </c>
     </row>
     <row r="25">
@@ -1005,7 +1005,7 @@
         <v>2.082445171479229</v>
       </c>
       <c r="D25" t="n">
-        <v>2.139337574243696</v>
+        <v>2.127589679888585</v>
       </c>
       <c r="E25" t="n">
         <v>2466</v>
@@ -1014,7 +1014,7 @@
         <v>0.4448051948051948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007060399917542775</v>
+        <v>39.14285714285715</v>
       </c>
     </row>
     <row r="26">
@@ -1028,7 +1028,7 @@
         <v>2.082927480339055</v>
       </c>
       <c r="D26" t="n">
-        <v>2.139337574243696</v>
+        <v>2.127329707785147</v>
       </c>
       <c r="E26" t="n">
         <v>2463</v>
@@ -1037,7 +1037,7 @@
         <v>0.4442640692640693</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007051810623239194</v>
+        <v>39.09523809523809</v>
       </c>
     </row>
     <row r="27">
@@ -1051,7 +1051,7 @@
         <v>2.081801515012496</v>
       </c>
       <c r="D27" t="n">
-        <v>2.139337574243696</v>
+        <v>2.124988642338044</v>
       </c>
       <c r="E27" t="n">
         <v>2457</v>
@@ -1060,7 +1060,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007034632034632035</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1074,7 +1074,7 @@
         <v>2.082165796058722</v>
       </c>
       <c r="D28" t="n">
-        <v>2.139337574243696</v>
+        <v>2.126195651048691</v>
       </c>
       <c r="E28" t="n">
         <v>2448</v>
@@ -1083,7 +1083,7 @@
         <v>0.4415584415584415</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007008864151721294</v>
+        <v>38.85714285714285</v>
       </c>
     </row>
     <row r="29">
@@ -1097,7 +1097,7 @@
         <v>2.079737925039889</v>
       </c>
       <c r="D29" t="n">
-        <v>2.139337574243696</v>
+        <v>2.124861618068633</v>
       </c>
       <c r="E29" t="n">
         <v>2441</v>
@@ -1106,7 +1106,7 @@
         <v>0.4402958152958153</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006988822465012941</v>
+        <v>38.74603174603175</v>
       </c>
     </row>
     <row r="30">
@@ -1120,7 +1120,7 @@
         <v>2.079508747247184</v>
       </c>
       <c r="D30" t="n">
-        <v>2.139337574243696</v>
+        <v>2.121556542345739</v>
       </c>
       <c r="E30" t="n">
         <v>2436</v>
@@ -1129,7 +1129,7 @@
         <v>0.4393939393939394</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006974506974506974</v>
+        <v>38.66666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -1143,7 +1143,7 @@
         <v>2.079053480531792</v>
       </c>
       <c r="D31" t="n">
-        <v>2.139337574243696</v>
+        <v>2.119864029668172</v>
       </c>
       <c r="E31" t="n">
         <v>2431</v>
@@ -1152,7 +1152,7 @@
         <v>0.4384920634920635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006960191484001008</v>
+        <v>38.58730158730159</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>2.079608115701401</v>
       </c>
       <c r="D32" t="n">
-        <v>2.139337574243696</v>
+        <v>2.119958663608569</v>
       </c>
       <c r="E32" t="n">
         <v>2429</v>
@@ -1175,7 +1175,7 @@
         <v>0.4381313131313131</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006954465287798622</v>
+        <v>38.55555555555556</v>
       </c>
     </row>
     <row r="33">
@@ -1189,7 +1189,7 @@
         <v>2.074153305564937</v>
       </c>
       <c r="D33" t="n">
-        <v>2.139337574243696</v>
+        <v>2.113222016897527</v>
       </c>
       <c r="E33" t="n">
         <v>2417</v>
@@ -1198,7 +1198,7 @@
         <v>0.4359668109668109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006920108110584301</v>
+        <v>38.36507936507937</v>
       </c>
     </row>
     <row r="34">
@@ -1212,7 +1212,7 @@
         <v>2.073783072430346</v>
       </c>
       <c r="D34" t="n">
-        <v>2.139337574243696</v>
+        <v>2.111660257409673</v>
       </c>
       <c r="E34" t="n">
         <v>2409</v>
@@ -1221,7 +1221,7 @@
         <v>0.4345238095238095</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006897203325774755</v>
+        <v>38.23809523809524</v>
       </c>
     </row>
     <row r="35">
@@ -1235,7 +1235,7 @@
         <v>2.078419779937638</v>
       </c>
       <c r="D35" t="n">
-        <v>2.139337574243696</v>
+        <v>2.112066289773897</v>
       </c>
       <c r="E35" t="n">
         <v>2393</v>
@@ -1244,7 +1244,7 @@
         <v>0.4316378066378067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006851393756155661</v>
+        <v>37.98412698412698</v>
       </c>
     </row>
     <row r="36">
@@ -1258,7 +1258,7 @@
         <v>2.070943441783759</v>
       </c>
       <c r="D36" t="n">
-        <v>2.139337574243696</v>
+        <v>2.105810207186438</v>
       </c>
       <c r="E36" t="n">
         <v>2378</v>
@@ -1267,7 +1267,7 @@
         <v>0.4289321789321789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006808447284637761</v>
+        <v>37.74603174603175</v>
       </c>
     </row>
     <row r="37">
@@ -1281,7 +1281,7 @@
         <v>2.071295602114835</v>
       </c>
       <c r="D37" t="n">
-        <v>2.139337574243696</v>
+        <v>2.102902641161698</v>
       </c>
       <c r="E37" t="n">
         <v>2366</v>
@@ -1290,7 +1290,7 @@
         <v>0.4267676767676767</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00677409010742344</v>
+        <v>37.55555555555556</v>
       </c>
     </row>
     <row r="38">
@@ -1304,7 +1304,7 @@
         <v>2.078386727720778</v>
       </c>
       <c r="D38" t="n">
-        <v>2.139337574243696</v>
+        <v>2.104468209883738</v>
       </c>
       <c r="E38" t="n">
         <v>2338</v>
@@ -1313,7 +1313,7 @@
         <v>0.4217171717171717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006693923360590028</v>
+        <v>37.11111111111111</v>
       </c>
     </row>
     <row r="39">
@@ -1327,7 +1327,7 @@
         <v>2.07149151214741</v>
       </c>
       <c r="D39" t="n">
-        <v>2.139337574243696</v>
+        <v>2.099912607935125</v>
       </c>
       <c r="E39" t="n">
         <v>2307</v>
@@ -1336,7 +1336,7 @@
         <v>0.4161255411255411</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006605167319453034</v>
+        <v>36.61904761904762</v>
       </c>
     </row>
     <row r="40">
@@ -1350,7 +1350,7 @@
         <v>2.066794530592043</v>
       </c>
       <c r="D40" t="n">
-        <v>2.139337574243696</v>
+        <v>2.091878885839314</v>
       </c>
       <c r="E40" t="n">
         <v>2276</v>
@@ -1359,7 +1359,7 @@
         <v>0.4105339105339105</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00651641127831604</v>
+        <v>36.12698412698413</v>
       </c>
     </row>
     <row r="41">
@@ -1373,7 +1373,7 @@
         <v>2.06039354637281</v>
       </c>
       <c r="D41" t="n">
-        <v>2.139337574243696</v>
+        <v>2.079396135689238</v>
       </c>
       <c r="E41" t="n">
         <v>2239</v>
@@ -1382,7 +1382,7 @@
         <v>0.4038600288600289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006410476648571886</v>
+        <v>35.53968253968254</v>
       </c>
     </row>
     <row r="42">
@@ -1396,7 +1396,7 @@
         <v>2.049166036997616</v>
       </c>
       <c r="D42" t="n">
-        <v>2.139337574243696</v>
+        <v>2.065359644865959</v>
       </c>
       <c r="E42" t="n">
         <v>2189</v>
@@ -1405,7 +1405,7 @@
         <v>0.3948412698412698</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00626732174351222</v>
+        <v>34.74603174603175</v>
       </c>
     </row>
     <row r="43">
@@ -1419,7 +1419,7 @@
         <v>2.031196125407328</v>
       </c>
       <c r="D43" t="n">
-        <v>2.139337574243696</v>
+        <v>2.042622446870265</v>
       </c>
       <c r="E43" t="n">
         <v>2137</v>
@@ -1428,7 +1428,7 @@
         <v>0.3854617604617604</v>
       </c>
       <c r="G43" t="n">
-        <v>0.006118440642250166</v>
+        <v>33.92063492063492</v>
       </c>
     </row>
     <row r="44">
@@ -1442,7 +1442,7 @@
         <v>2.028617544163716</v>
       </c>
       <c r="D44" t="n">
-        <v>2.139337574243696</v>
+        <v>2.034839747563011</v>
       </c>
       <c r="E44" t="n">
         <v>2044</v>
@@ -1451,7 +1451,7 @@
         <v>0.3686868686868687</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005852172518839185</v>
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="45">
@@ -1465,7 +1465,7 @@
         <v>2.018705074809447</v>
       </c>
       <c r="D45" t="n">
-        <v>2.139337574243696</v>
+        <v>2.021975247708756</v>
       </c>
       <c r="E45" t="n">
         <v>1938</v>
@@ -1474,7 +1474,7 @@
         <v>0.3495670995670996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005548684120112691</v>
+        <v>30.76190476190476</v>
       </c>
     </row>
     <row r="46">
@@ -1488,7 +1488,7 @@
         <v>1.990445490551076</v>
       </c>
       <c r="D46" t="n">
-        <v>2.139337574243696</v>
+        <v>1.997742026431591</v>
       </c>
       <c r="E46" t="n">
         <v>1778</v>
@@ -1497,7 +1497,7 @@
         <v>0.3207070707070707</v>
       </c>
       <c r="G46" t="n">
-        <v>0.005090588423921757</v>
+        <v>28.22222222222222</v>
       </c>
     </row>
     <row r="47">
@@ -1511,7 +1511,7 @@
         <v>1.982498943212088</v>
       </c>
       <c r="D47" t="n">
-        <v>2.139337574243696</v>
+        <v>1.95693254851187</v>
       </c>
       <c r="E47" t="n">
         <v>1569</v>
@@ -1520,7 +1520,7 @@
         <v>0.283008658008658</v>
       </c>
       <c r="G47" t="n">
-        <v>0.004492200920772349</v>
+        <v>24.90476190476191</v>
       </c>
     </row>
     <row r="48">
@@ -1534,7 +1534,7 @@
         <v>1.91103377425726</v>
       </c>
       <c r="D48" t="n">
-        <v>2.139337574243696</v>
+        <v>1.835499263639429</v>
       </c>
       <c r="E48" t="n">
         <v>1276</v>
@@ -1543,7 +1543,7 @@
         <v>0.2301587301587301</v>
       </c>
       <c r="G48" t="n">
-        <v>0.003653313177122701</v>
+        <v>20.25396825396825</v>
       </c>
     </row>
     <row r="49">
@@ -1557,7 +1557,7 @@
         <v>1.582519106542808</v>
       </c>
       <c r="D49" t="n">
-        <v>2.139337574243696</v>
+        <v>1.504352486364895</v>
       </c>
       <c r="E49" t="n">
         <v>705</v>
@@ -1566,7 +1566,7 @@
         <v>0.1271645021645022</v>
       </c>
       <c r="G49" t="n">
-        <v>0.002018484161341305</v>
+        <v>11.19047619047619</v>
       </c>
     </row>
     <row r="50">
@@ -1580,7 +1580,7 @@
         <v>1.388206997465243</v>
       </c>
       <c r="D50" t="n">
-        <v>2.139337574243696</v>
+        <v>1.270685148540861</v>
       </c>
       <c r="E50" t="n">
         <v>170</v>
@@ -1589,7 +1589,7 @@
         <v>0.03066378066378066</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0004867266772028677</v>
+        <v>2.698412698412699</v>
       </c>
     </row>
     <row r="51">
@@ -1600,9 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>2.139337574243696</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
       </c>

--- a/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
@@ -473,19 +473,19 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.080080141410982</v>
+        <v>1.511179703834972</v>
       </c>
       <c r="D2" t="n">
-        <v>2.139337574243696</v>
+        <v>1.615307186802609</v>
       </c>
       <c r="E2" t="n">
-        <v>2505</v>
+        <v>1977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3566017316017316</v>
       </c>
       <c r="G2" t="n">
-        <v>39.76190476190476</v>
+        <v>31.38095238095238</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>2.080080141410982</v>
+        <v>1.511971737413812</v>
       </c>
       <c r="D3" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616002815808326</v>
       </c>
       <c r="E3" t="n">
-        <v>2505</v>
+        <v>1975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3562409812409812</v>
       </c>
       <c r="G3" t="n">
-        <v>39.76190476190476</v>
+        <v>31.34920634920635</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>2.080080141410982</v>
+        <v>1.511971737413812</v>
       </c>
       <c r="D4" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616002815808326</v>
       </c>
       <c r="E4" t="n">
-        <v>2505</v>
+        <v>1975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3562409812409812</v>
       </c>
       <c r="G4" t="n">
-        <v>39.76190476190476</v>
+        <v>31.34920634920635</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512444434566423</v>
       </c>
       <c r="D5" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616739276620547</v>
       </c>
       <c r="E5" t="n">
-        <v>2505</v>
+        <v>1973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3558802308802309</v>
       </c>
       <c r="G5" t="n">
-        <v>39.76190476190476</v>
+        <v>31.31746031746032</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512672818358493</v>
       </c>
       <c r="D6" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616709701541518</v>
       </c>
       <c r="E6" t="n">
-        <v>2505</v>
+        <v>1972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3556998556998557</v>
       </c>
       <c r="G6" t="n">
-        <v>39.76190476190476</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512672818358493</v>
       </c>
       <c r="D7" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616709701541518</v>
       </c>
       <c r="E7" t="n">
-        <v>2505</v>
+        <v>1972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3556998556998557</v>
       </c>
       <c r="G7" t="n">
-        <v>39.76190476190476</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="8">
@@ -611,19 +611,19 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512672818358493</v>
       </c>
       <c r="D8" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616709701541518</v>
       </c>
       <c r="E8" t="n">
-        <v>2505</v>
+        <v>1972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3556998556998557</v>
       </c>
       <c r="G8" t="n">
-        <v>39.76190476190476</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512672818358493</v>
       </c>
       <c r="D9" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616709701541518</v>
       </c>
       <c r="E9" t="n">
-        <v>2505</v>
+        <v>1972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3556998556998557</v>
       </c>
       <c r="G9" t="n">
-        <v>39.76190476190476</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>2.080080141410982</v>
+        <v>1.512672818358493</v>
       </c>
       <c r="D10" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616709701541518</v>
       </c>
       <c r="E10" t="n">
-        <v>2505</v>
+        <v>1972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3556998556998557</v>
       </c>
       <c r="G10" t="n">
-        <v>39.76190476190476</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="11">
@@ -680,19 +680,19 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>2.080080141410982</v>
+        <v>1.513929005258451</v>
       </c>
       <c r="D11" t="n">
-        <v>2.139337574243696</v>
+        <v>1.617119499269849</v>
       </c>
       <c r="E11" t="n">
-        <v>2505</v>
+        <v>1971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3555194805194805</v>
       </c>
       <c r="G11" t="n">
-        <v>39.76190476190476</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="12">
@@ -703,19 +703,19 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>2.080080141410982</v>
+        <v>1.513929005258451</v>
       </c>
       <c r="D12" t="n">
-        <v>2.139337574243696</v>
+        <v>1.617119499269849</v>
       </c>
       <c r="E12" t="n">
-        <v>2505</v>
+        <v>1971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3555194805194805</v>
       </c>
       <c r="G12" t="n">
-        <v>39.76190476190476</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>2.080080141410982</v>
+        <v>1.514310337456992</v>
       </c>
       <c r="D13" t="n">
-        <v>2.139337574243696</v>
+        <v>1.617524494725992</v>
       </c>
       <c r="E13" t="n">
-        <v>2505</v>
+        <v>1970</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3553391053391053</v>
       </c>
       <c r="G13" t="n">
-        <v>39.76190476190476</v>
+        <v>31.26984126984127</v>
       </c>
     </row>
     <row r="14">
@@ -749,19 +749,19 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>2.080080141410982</v>
+        <v>1.516064366965211</v>
       </c>
       <c r="D14" t="n">
-        <v>2.139337574243696</v>
+        <v>1.618889691572275</v>
       </c>
       <c r="E14" t="n">
-        <v>2505</v>
+        <v>1966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3546176046176046</v>
       </c>
       <c r="G14" t="n">
-        <v>39.76190476190476</v>
+        <v>31.20634920634921</v>
       </c>
     </row>
     <row r="15">
@@ -772,19 +772,19 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>2.080080141410982</v>
+        <v>1.51547201939842</v>
       </c>
       <c r="D15" t="n">
-        <v>2.139337574243696</v>
+        <v>1.617602851623264</v>
       </c>
       <c r="E15" t="n">
-        <v>2505</v>
+        <v>1964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3542568542568543</v>
       </c>
       <c r="G15" t="n">
-        <v>39.76190476190476</v>
+        <v>31.17460317460317</v>
       </c>
     </row>
     <row r="16">
@@ -795,19 +795,19 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>2.080080141410982</v>
+        <v>1.513919357203425</v>
       </c>
       <c r="D16" t="n">
-        <v>2.139337574243696</v>
+        <v>1.616075986497502</v>
       </c>
       <c r="E16" t="n">
-        <v>2505</v>
+        <v>1961</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3537157287157287</v>
       </c>
       <c r="G16" t="n">
-        <v>39.76190476190476</v>
+        <v>31.12698412698413</v>
       </c>
     </row>
     <row r="17">
@@ -818,19 +818,19 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>2.080080141410982</v>
+        <v>1.514874815463211</v>
       </c>
       <c r="D17" t="n">
-        <v>2.139337574243696</v>
+        <v>1.617468869798642</v>
       </c>
       <c r="E17" t="n">
-        <v>2505</v>
+        <v>1957</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.352994227994228</v>
       </c>
       <c r="G17" t="n">
-        <v>39.76190476190476</v>
+        <v>31.06349206349206</v>
       </c>
     </row>
     <row r="18">
@@ -841,19 +841,19 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>2.080080141410982</v>
+        <v>1.515748436013758</v>
       </c>
       <c r="D18" t="n">
-        <v>2.139337574243696</v>
+        <v>1.618060899210338</v>
       </c>
       <c r="E18" t="n">
-        <v>2505</v>
+        <v>1955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3526334776334776</v>
       </c>
       <c r="G18" t="n">
-        <v>39.76190476190476</v>
+        <v>31.03174603174603</v>
       </c>
     </row>
     <row r="19">
@@ -864,19 +864,19 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>2.080080141410982</v>
+        <v>1.510429358220765</v>
       </c>
       <c r="D19" t="n">
-        <v>2.139337574243696</v>
+        <v>1.614010689049391</v>
       </c>
       <c r="E19" t="n">
-        <v>2505</v>
+        <v>1949</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3515512265512266</v>
       </c>
       <c r="G19" t="n">
-        <v>39.76190476190476</v>
+        <v>30.93650793650794</v>
       </c>
     </row>
     <row r="20">
@@ -887,19 +887,19 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>2.080080141410982</v>
+        <v>1.513172588032851</v>
       </c>
       <c r="D20" t="n">
-        <v>2.139337574243696</v>
+        <v>1.614742969456763</v>
       </c>
       <c r="E20" t="n">
-        <v>2505</v>
+        <v>1946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.351010101010101</v>
       </c>
       <c r="G20" t="n">
-        <v>39.76190476190476</v>
+        <v>30.88888888888889</v>
       </c>
     </row>
     <row r="21">
@@ -910,19 +910,19 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>2.080080141410982</v>
+        <v>1.514664898520284</v>
       </c>
       <c r="D21" t="n">
-        <v>2.139337574243696</v>
+        <v>1.615585039048565</v>
       </c>
       <c r="E21" t="n">
-        <v>2505</v>
+        <v>1943</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3504689754689755</v>
       </c>
       <c r="G21" t="n">
-        <v>39.76190476190476</v>
+        <v>30.84126984126984</v>
       </c>
     </row>
     <row r="22">
@@ -933,19 +933,19 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>2.079473727118974</v>
+        <v>1.514542169433464</v>
       </c>
       <c r="D22" t="n">
-        <v>2.136793603657316</v>
+        <v>1.614784961076318</v>
       </c>
       <c r="E22" t="n">
-        <v>2500</v>
+        <v>1942</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4509379509379509</v>
+        <v>0.3502886002886003</v>
       </c>
       <c r="G22" t="n">
-        <v>39.68253968253968</v>
+        <v>30.82539682539683</v>
       </c>
     </row>
     <row r="23">
@@ -956,19 +956,19 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>2.080684736272763</v>
+        <v>1.518173956024117</v>
       </c>
       <c r="D23" t="n">
-        <v>2.136280133796781</v>
+        <v>1.615473723862625</v>
       </c>
       <c r="E23" t="n">
-        <v>2494</v>
+        <v>1938</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4498556998556998</v>
+        <v>0.3495670995670996</v>
       </c>
       <c r="G23" t="n">
-        <v>39.58730158730159</v>
+        <v>30.76190476190476</v>
       </c>
     </row>
     <row r="24">
@@ -979,19 +979,19 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>2.082167649868273</v>
+        <v>1.512999259120564</v>
       </c>
       <c r="D24" t="n">
-        <v>2.13555450967014</v>
+        <v>1.610220451286226</v>
       </c>
       <c r="E24" t="n">
-        <v>2481</v>
+        <v>1934</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4475108225108225</v>
+        <v>0.3488455988455988</v>
       </c>
       <c r="G24" t="n">
-        <v>39.38095238095238</v>
+        <v>30.6984126984127</v>
       </c>
     </row>
     <row r="25">
@@ -1002,19 +1002,19 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>2.082445171479229</v>
+        <v>1.509901782911796</v>
       </c>
       <c r="D25" t="n">
-        <v>2.127589679888585</v>
+        <v>1.60362754135532</v>
       </c>
       <c r="E25" t="n">
-        <v>2466</v>
+        <v>1925</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4448051948051948</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="G25" t="n">
-        <v>39.14285714285715</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="26">
@@ -1025,19 +1025,19 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>2.082927480339055</v>
+        <v>1.498443291292488</v>
       </c>
       <c r="D26" t="n">
-        <v>2.127329707785147</v>
+        <v>1.599852147852569</v>
       </c>
       <c r="E26" t="n">
-        <v>2463</v>
+        <v>1918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4442640692640693</v>
+        <v>0.345959595959596</v>
       </c>
       <c r="G26" t="n">
-        <v>39.09523809523809</v>
+        <v>30.44444444444444</v>
       </c>
     </row>
     <row r="27">
@@ -1048,19 +1048,19 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>2.081801515012496</v>
+        <v>1.500660291190787</v>
       </c>
       <c r="D27" t="n">
-        <v>2.124988642338044</v>
+        <v>1.599873007921771</v>
       </c>
       <c r="E27" t="n">
-        <v>2457</v>
+        <v>1908</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4431818181818182</v>
+        <v>0.3441558441558442</v>
       </c>
       <c r="G27" t="n">
-        <v>39</v>
+        <v>30.28571428571428</v>
       </c>
     </row>
     <row r="28">
@@ -1071,19 +1071,19 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>2.082165796058722</v>
+        <v>1.505725214943513</v>
       </c>
       <c r="D28" t="n">
-        <v>2.126195651048691</v>
+        <v>1.600770805704966</v>
       </c>
       <c r="E28" t="n">
-        <v>2448</v>
+        <v>1903</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.3432539682539683</v>
       </c>
       <c r="G28" t="n">
-        <v>38.85714285714285</v>
+        <v>30.20634920634921</v>
       </c>
     </row>
     <row r="29">
@@ -1094,19 +1094,19 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>2.079737925039889</v>
+        <v>1.498661560125617</v>
       </c>
       <c r="D29" t="n">
-        <v>2.124861618068633</v>
+        <v>1.599568439761847</v>
       </c>
       <c r="E29" t="n">
-        <v>2441</v>
+        <v>1896</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4402958152958153</v>
+        <v>0.341991341991342</v>
       </c>
       <c r="G29" t="n">
-        <v>38.74603174603175</v>
+        <v>30.09523809523809</v>
       </c>
     </row>
     <row r="30">
@@ -1117,19 +1117,19 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>2.079508747247184</v>
+        <v>1.490594752770106</v>
       </c>
       <c r="D30" t="n">
-        <v>2.121556542345739</v>
+        <v>1.600093093644183</v>
       </c>
       <c r="E30" t="n">
-        <v>2436</v>
+        <v>1878</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.3387445887445887</v>
       </c>
       <c r="G30" t="n">
-        <v>38.66666666666666</v>
+        <v>29.80952380952381</v>
       </c>
     </row>
     <row r="31">
@@ -1140,19 +1140,19 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>2.079053480531792</v>
+        <v>1.479211240234813</v>
       </c>
       <c r="D31" t="n">
-        <v>2.119864029668172</v>
+        <v>1.598840421125847</v>
       </c>
       <c r="E31" t="n">
-        <v>2431</v>
+        <v>1861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4384920634920635</v>
+        <v>0.3356782106782107</v>
       </c>
       <c r="G31" t="n">
-        <v>38.58730158730159</v>
+        <v>29.53968253968254</v>
       </c>
     </row>
     <row r="32">
@@ -1163,19 +1163,19 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079608115701401</v>
+        <v>1.47360535950891</v>
       </c>
       <c r="D32" t="n">
-        <v>2.119958663608569</v>
+        <v>1.598619701150234</v>
       </c>
       <c r="E32" t="n">
-        <v>2429</v>
+        <v>1849</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4381313131313131</v>
+        <v>0.3335137085137085</v>
       </c>
       <c r="G32" t="n">
-        <v>38.55555555555556</v>
+        <v>29.34920634920635</v>
       </c>
     </row>
     <row r="33">
@@ -1186,19 +1186,19 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>2.074153305564937</v>
+        <v>1.458620806956018</v>
       </c>
       <c r="D33" t="n">
-        <v>2.113222016897527</v>
+        <v>1.599161987476047</v>
       </c>
       <c r="E33" t="n">
-        <v>2417</v>
+        <v>1834</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4359668109668109</v>
+        <v>0.3308080808080808</v>
       </c>
       <c r="G33" t="n">
-        <v>38.36507936507937</v>
+        <v>29.11111111111111</v>
       </c>
     </row>
     <row r="34">
@@ -1209,19 +1209,19 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>2.073783072430346</v>
+        <v>1.414671191863435</v>
       </c>
       <c r="D34" t="n">
-        <v>2.111660257409673</v>
+        <v>1.599417319372034</v>
       </c>
       <c r="E34" t="n">
-        <v>2409</v>
+        <v>1826</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4345238095238095</v>
+        <v>0.3293650793650794</v>
       </c>
       <c r="G34" t="n">
-        <v>38.23809523809524</v>
+        <v>28.98412698412698</v>
       </c>
     </row>
     <row r="35">
@@ -1232,19 +1232,19 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>2.078419779937638</v>
+        <v>1.402161847727561</v>
       </c>
       <c r="D35" t="n">
-        <v>2.112066289773897</v>
+        <v>1.597280855746159</v>
       </c>
       <c r="E35" t="n">
-        <v>2393</v>
+        <v>1814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4316378066378067</v>
+        <v>0.3272005772005772</v>
       </c>
       <c r="G35" t="n">
-        <v>37.98412698412698</v>
+        <v>28.79365079365079</v>
       </c>
     </row>
     <row r="36">
@@ -1255,19 +1255,19 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>2.070943441783759</v>
+        <v>1.404133431441432</v>
       </c>
       <c r="D36" t="n">
-        <v>2.105810207186438</v>
+        <v>1.603954165236823</v>
       </c>
       <c r="E36" t="n">
-        <v>2378</v>
+        <v>1782</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4289321789321789</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="G36" t="n">
-        <v>37.74603174603175</v>
+        <v>28.28571428571428</v>
       </c>
     </row>
     <row r="37">
@@ -1278,19 +1278,19 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>2.071295602114835</v>
+        <v>1.384411121512844</v>
       </c>
       <c r="D37" t="n">
-        <v>2.102902641161698</v>
+        <v>1.60679823718064</v>
       </c>
       <c r="E37" t="n">
-        <v>2366</v>
+        <v>1763</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4267676767676767</v>
+        <v>0.318001443001443</v>
       </c>
       <c r="G37" t="n">
-        <v>37.55555555555556</v>
+        <v>27.98412698412698</v>
       </c>
     </row>
     <row r="38">
@@ -1301,19 +1301,19 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>2.078386727720778</v>
+        <v>1.394247834019988</v>
       </c>
       <c r="D38" t="n">
-        <v>2.104468209883738</v>
+        <v>1.610331931373487</v>
       </c>
       <c r="E38" t="n">
-        <v>2338</v>
+        <v>1733</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4217171717171717</v>
+        <v>0.3125901875901876</v>
       </c>
       <c r="G38" t="n">
-        <v>37.11111111111111</v>
+        <v>27.50793650793651</v>
       </c>
     </row>
     <row r="39">
@@ -1324,19 +1324,19 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>2.07149151214741</v>
+        <v>1.336371914299397</v>
       </c>
       <c r="D39" t="n">
-        <v>2.099912607935125</v>
+        <v>1.605934063155811</v>
       </c>
       <c r="E39" t="n">
-        <v>2307</v>
+        <v>1711</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4161255411255411</v>
+        <v>0.3086219336219336</v>
       </c>
       <c r="G39" t="n">
-        <v>36.61904761904762</v>
+        <v>27.15873015873016</v>
       </c>
     </row>
     <row r="40">
@@ -1347,19 +1347,19 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>2.066794530592043</v>
+        <v>1.341725841084197</v>
       </c>
       <c r="D40" t="n">
-        <v>2.091878885839314</v>
+        <v>1.603339564800934</v>
       </c>
       <c r="E40" t="n">
-        <v>2276</v>
+        <v>1676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4105339105339105</v>
+        <v>0.3023088023088023</v>
       </c>
       <c r="G40" t="n">
-        <v>36.12698412698413</v>
+        <v>26.6031746031746</v>
       </c>
     </row>
     <row r="41">
@@ -1370,19 +1370,19 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>2.06039354637281</v>
+        <v>1.382697046671422</v>
       </c>
       <c r="D41" t="n">
-        <v>2.079396135689238</v>
+        <v>1.607803705410245</v>
       </c>
       <c r="E41" t="n">
-        <v>2239</v>
+        <v>1619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4038600288600289</v>
+        <v>0.292027417027417</v>
       </c>
       <c r="G41" t="n">
-        <v>35.53968253968254</v>
+        <v>25.6984126984127</v>
       </c>
     </row>
     <row r="42">
@@ -1393,19 +1393,19 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049166036997616</v>
+        <v>1.365965063689669</v>
       </c>
       <c r="D42" t="n">
-        <v>2.065359644865959</v>
+        <v>1.603424786843718</v>
       </c>
       <c r="E42" t="n">
-        <v>2189</v>
+        <v>1548</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3948412698412698</v>
+        <v>0.2792207792207792</v>
       </c>
       <c r="G42" t="n">
-        <v>34.74603174603175</v>
+        <v>24.57142857142857</v>
       </c>
     </row>
     <row r="43">
@@ -1416,19 +1416,19 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>2.031196125407328</v>
+        <v>1.397086470997752</v>
       </c>
       <c r="D43" t="n">
-        <v>2.042622446870265</v>
+        <v>1.560339786886919</v>
       </c>
       <c r="E43" t="n">
-        <v>2137</v>
+        <v>1472</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3854617604617604</v>
+        <v>0.2655122655122655</v>
       </c>
       <c r="G43" t="n">
-        <v>33.92063492063492</v>
+        <v>23.36507936507936</v>
       </c>
     </row>
     <row r="44">
@@ -1439,19 +1439,19 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>2.028617544163716</v>
+        <v>1.437046457796114</v>
       </c>
       <c r="D44" t="n">
-        <v>2.034839747563011</v>
+        <v>1.501951814983856</v>
       </c>
       <c r="E44" t="n">
-        <v>2044</v>
+        <v>1392</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3686868686868687</v>
+        <v>0.2510822510822511</v>
       </c>
       <c r="G44" t="n">
-        <v>32.44444444444444</v>
+        <v>22.09523809523809</v>
       </c>
     </row>
     <row r="45">
@@ -1462,19 +1462,19 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>2.018705074809447</v>
+        <v>1.376052797621871</v>
       </c>
       <c r="D45" t="n">
-        <v>2.021975247708756</v>
+        <v>1.428046864211716</v>
       </c>
       <c r="E45" t="n">
-        <v>1938</v>
+        <v>1235</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3495670995670996</v>
+        <v>0.2227633477633478</v>
       </c>
       <c r="G45" t="n">
-        <v>30.76190476190476</v>
+        <v>19.6031746031746</v>
       </c>
     </row>
     <row r="46">
@@ -1485,19 +1485,19 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>1.990445490551076</v>
+        <v>1.317397275463974</v>
       </c>
       <c r="D46" t="n">
-        <v>1.997742026431591</v>
+        <v>1.315879943192129</v>
       </c>
       <c r="E46" t="n">
-        <v>1778</v>
+        <v>1019</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3207070707070707</v>
+        <v>0.1838023088023088</v>
       </c>
       <c r="G46" t="n">
-        <v>28.22222222222222</v>
+        <v>16.17460317460317</v>
       </c>
     </row>
     <row r="47">
@@ -1508,19 +1508,19 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>1.982498943212088</v>
+        <v>1.057769277428422</v>
       </c>
       <c r="D47" t="n">
-        <v>1.95693254851187</v>
+        <v>1.215743157886324</v>
       </c>
       <c r="E47" t="n">
-        <v>1569</v>
+        <v>734</v>
       </c>
       <c r="F47" t="n">
-        <v>0.283008658008658</v>
+        <v>0.1323953823953824</v>
       </c>
       <c r="G47" t="n">
-        <v>24.90476190476191</v>
+        <v>11.65079365079365</v>
       </c>
     </row>
     <row r="48">
@@ -1531,19 +1531,19 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>1.91103377425726</v>
+        <v>0.895241151850083</v>
       </c>
       <c r="D48" t="n">
-        <v>1.835499263639429</v>
+        <v>1.137423283492765</v>
       </c>
       <c r="E48" t="n">
-        <v>1276</v>
+        <v>451</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.08134920634920635</v>
       </c>
       <c r="G48" t="n">
-        <v>20.25396825396825</v>
+        <v>7.158730158730159</v>
       </c>
     </row>
     <row r="49">
@@ -1554,19 +1554,19 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>1.582519106542808</v>
+        <v>0.7065746747268984</v>
       </c>
       <c r="D49" t="n">
-        <v>1.504352486364895</v>
+        <v>1.148266318916395</v>
       </c>
       <c r="E49" t="n">
-        <v>705</v>
+        <v>194</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1271645021645022</v>
+        <v>0.03499278499278499</v>
       </c>
       <c r="G49" t="n">
-        <v>11.19047619047619</v>
+        <v>3.07936507936508</v>
       </c>
     </row>
     <row r="50">
@@ -1577,19 +1577,19 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>1.388206997465243</v>
+        <v>0.7394028611841493</v>
       </c>
       <c r="D50" t="n">
-        <v>1.270685148540861</v>
+        <v>1.401531649329043</v>
       </c>
       <c r="E50" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03066378066378066</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G50" t="n">
-        <v>2.698412698412699</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="51">

--- a/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.511179703834972</v>
+        <v>1.511179840453162</v>
       </c>
       <c r="D2" t="n">
-        <v>1.615307186802609</v>
+        <v>1.615307433936272</v>
       </c>
       <c r="E2" t="n">
         <v>1977</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.511971737413812</v>
+        <v>1.511971874031777</v>
       </c>
       <c r="D3" t="n">
-        <v>1.616002815808326</v>
+        <v>1.616003063085819</v>
       </c>
       <c r="E3" t="n">
         <v>1975</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>1.511971737413812</v>
+        <v>1.511971874031777</v>
       </c>
       <c r="D4" t="n">
-        <v>1.616002815808326</v>
+        <v>1.616003063085819</v>
       </c>
       <c r="E4" t="n">
         <v>1975</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>1.512444434566423</v>
+        <v>1.512444571278213</v>
       </c>
       <c r="D5" t="n">
-        <v>1.616739276620547</v>
+        <v>1.616739524032188</v>
       </c>
       <c r="E5" t="n">
         <v>1973</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>1.512672818358493</v>
+        <v>1.512672954792626</v>
       </c>
       <c r="D6" t="n">
-        <v>1.616709701541518</v>
+        <v>1.616709948856434</v>
       </c>
       <c r="E6" t="n">
         <v>1972</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>1.512672818358493</v>
+        <v>1.512672954792626</v>
       </c>
       <c r="D7" t="n">
-        <v>1.616709701541518</v>
+        <v>1.616709948856434</v>
       </c>
       <c r="E7" t="n">
         <v>1972</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>1.512672818358493</v>
+        <v>1.512672954792626</v>
       </c>
       <c r="D8" t="n">
-        <v>1.616709701541518</v>
+        <v>1.616709948856434</v>
       </c>
       <c r="E8" t="n">
         <v>1972</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>1.512672818358493</v>
+        <v>1.512672954792626</v>
       </c>
       <c r="D9" t="n">
-        <v>1.616709701541518</v>
+        <v>1.616709948856434</v>
       </c>
       <c r="E9" t="n">
         <v>1972</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>1.512672818358493</v>
+        <v>1.512672954792626</v>
       </c>
       <c r="D10" t="n">
-        <v>1.616709701541518</v>
+        <v>1.616709948856434</v>
       </c>
       <c r="E10" t="n">
         <v>1972</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>1.513929005258451</v>
+        <v>1.513929141809105</v>
       </c>
       <c r="D11" t="n">
-        <v>1.617119499269849</v>
+        <v>1.617119746641908</v>
       </c>
       <c r="E11" t="n">
         <v>1971</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>1.513929005258451</v>
+        <v>1.513929141809105</v>
       </c>
       <c r="D12" t="n">
-        <v>1.617119499269849</v>
+        <v>1.617119746641908</v>
       </c>
       <c r="E12" t="n">
         <v>1971</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>1.514310337456992</v>
+        <v>1.514310474007827</v>
       </c>
       <c r="D13" t="n">
-        <v>1.617524494725992</v>
+        <v>1.617524742165059</v>
       </c>
       <c r="E13" t="n">
         <v>1970</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>1.516064366965211</v>
+        <v>1.516064537057717</v>
       </c>
       <c r="D14" t="n">
-        <v>1.618889691572275</v>
+        <v>1.61888995003701</v>
       </c>
       <c r="E14" t="n">
         <v>1966</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>1.51547201939842</v>
+        <v>1.515472189493061</v>
       </c>
       <c r="D15" t="n">
-        <v>1.617602851623264</v>
+        <v>1.617603110560955</v>
       </c>
       <c r="E15" t="n">
         <v>1964</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>1.513919357203425</v>
+        <v>1.51391952847124</v>
       </c>
       <c r="D16" t="n">
-        <v>1.616075986497502</v>
+        <v>1.616076246259712</v>
       </c>
       <c r="E16" t="n">
         <v>1961</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>1.514874815463211</v>
+        <v>1.514874967177396</v>
       </c>
       <c r="D17" t="n">
-        <v>1.617468869798642</v>
+        <v>1.617469127125469</v>
       </c>
       <c r="E17" t="n">
         <v>1957</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>1.515748436013758</v>
+        <v>1.515748584332907</v>
       </c>
       <c r="D18" t="n">
-        <v>1.618060899210338</v>
+        <v>1.618061153520821</v>
       </c>
       <c r="E18" t="n">
         <v>1955</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>1.510429358220765</v>
+        <v>1.510429497213627</v>
       </c>
       <c r="D19" t="n">
-        <v>1.614010689049391</v>
+        <v>1.614010943321308</v>
       </c>
       <c r="E19" t="n">
         <v>1949</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>1.513172588032851</v>
+        <v>1.51317272509194</v>
       </c>
       <c r="D20" t="n">
-        <v>1.614742969456763</v>
+        <v>1.614743221775179</v>
       </c>
       <c r="E20" t="n">
         <v>1946</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>1.514664898520284</v>
+        <v>1.514665035663081</v>
       </c>
       <c r="D21" t="n">
-        <v>1.615585039048565</v>
+        <v>1.61558529156696</v>
       </c>
       <c r="E21" t="n">
         <v>1943</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>1.514542169433464</v>
+        <v>1.514542306649748</v>
       </c>
       <c r="D22" t="n">
-        <v>1.614784961076318</v>
+        <v>1.614785214020737</v>
       </c>
       <c r="E22" t="n">
         <v>1942</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>1.518173956024117</v>
+        <v>1.518174092945958</v>
       </c>
       <c r="D23" t="n">
-        <v>1.615473723862625</v>
+        <v>1.615473975549777</v>
       </c>
       <c r="E23" t="n">
         <v>1938</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>1.512999259120564</v>
+        <v>1.51299939715545</v>
       </c>
       <c r="D24" t="n">
-        <v>1.610220451286226</v>
+        <v>1.610220704255095</v>
       </c>
       <c r="E24" t="n">
         <v>1934</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>1.509901782911796</v>
+        <v>1.509901917216961</v>
       </c>
       <c r="D25" t="n">
-        <v>1.60362754135532</v>
+        <v>1.603627797788587</v>
       </c>
       <c r="E25" t="n">
         <v>1925</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>1.498443291292488</v>
+        <v>1.498443515308484</v>
       </c>
       <c r="D26" t="n">
-        <v>1.599852147852569</v>
+        <v>1.599852431290684</v>
       </c>
       <c r="E26" t="n">
         <v>1918</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>1.500660291190787</v>
+        <v>1.500660556962412</v>
       </c>
       <c r="D27" t="n">
-        <v>1.599873007921771</v>
+        <v>1.599873301744966</v>
       </c>
       <c r="E27" t="n">
         <v>1908</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>1.505725214943513</v>
+        <v>1.505725507486379</v>
       </c>
       <c r="D28" t="n">
-        <v>1.600770805704966</v>
+        <v>1.60077110575724</v>
       </c>
       <c r="E28" t="n">
         <v>1903</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>1.498661560125617</v>
+        <v>1.498661830122592</v>
       </c>
       <c r="D29" t="n">
-        <v>1.599568439761847</v>
+        <v>1.599568724442489</v>
       </c>
       <c r="E29" t="n">
         <v>1896</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>1.490594752770106</v>
+        <v>1.490595000409276</v>
       </c>
       <c r="D30" t="n">
-        <v>1.600093093644183</v>
+        <v>1.600093373915073</v>
       </c>
       <c r="E30" t="n">
         <v>1878</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>1.479211240234813</v>
+        <v>1.479211576457861</v>
       </c>
       <c r="D31" t="n">
-        <v>1.598840421125847</v>
+        <v>1.59884072330736</v>
       </c>
       <c r="E31" t="n">
         <v>1861</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>1.47360535950891</v>
+        <v>1.473605694724439</v>
       </c>
       <c r="D32" t="n">
-        <v>1.598619701150234</v>
+        <v>1.59861998907964</v>
       </c>
       <c r="E32" t="n">
         <v>1849</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>1.458620806956018</v>
+        <v>1.45862113485281</v>
       </c>
       <c r="D33" t="n">
-        <v>1.599161987476047</v>
+        <v>1.599162280878559</v>
       </c>
       <c r="E33" t="n">
         <v>1834</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>1.414671191863435</v>
+        <v>1.414671499595326</v>
       </c>
       <c r="D34" t="n">
-        <v>1.599417319372034</v>
+        <v>1.599417613735324</v>
       </c>
       <c r="E34" t="n">
         <v>1826</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>1.402161847727561</v>
+        <v>1.402162259839286</v>
       </c>
       <c r="D35" t="n">
-        <v>1.597280855746159</v>
+        <v>1.597281164957033</v>
       </c>
       <c r="E35" t="n">
         <v>1814</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>1.404133431441432</v>
+        <v>1.404133819514592</v>
       </c>
       <c r="D36" t="n">
-        <v>1.603954165236823</v>
+        <v>1.60395445871751</v>
       </c>
       <c r="E36" t="n">
         <v>1782</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>1.384411121512844</v>
+        <v>1.384411320634184</v>
       </c>
       <c r="D37" t="n">
-        <v>1.60679823718064</v>
+        <v>1.606798496091808</v>
       </c>
       <c r="E37" t="n">
         <v>1763</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>1.394247834019988</v>
+        <v>1.394248164925956</v>
       </c>
       <c r="D38" t="n">
-        <v>1.610331931373487</v>
+        <v>1.610332200011255</v>
       </c>
       <c r="E38" t="n">
         <v>1733</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>1.336371914299397</v>
+        <v>1.336372039379732</v>
       </c>
       <c r="D39" t="n">
-        <v>1.605934063155811</v>
+        <v>1.605934317991185</v>
       </c>
       <c r="E39" t="n">
         <v>1711</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>1.341725841084197</v>
+        <v>1.341725960811033</v>
       </c>
       <c r="D40" t="n">
-        <v>1.603339564800934</v>
+        <v>1.603339830580408</v>
       </c>
       <c r="E40" t="n">
         <v>1676</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>1.382697046671422</v>
+        <v>1.382697166812757</v>
       </c>
       <c r="D41" t="n">
-        <v>1.607803705410245</v>
+        <v>1.607803979290581</v>
       </c>
       <c r="E41" t="n">
         <v>1619</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>1.365965063689669</v>
+        <v>1.365965521085989</v>
       </c>
       <c r="D42" t="n">
-        <v>1.603424786843718</v>
+        <v>1.603425076958344</v>
       </c>
       <c r="E42" t="n">
         <v>1548</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>1.397086470997752</v>
+        <v>1.397086724064075</v>
       </c>
       <c r="D43" t="n">
-        <v>1.560339786886919</v>
+        <v>1.560340105641029</v>
       </c>
       <c r="E43" t="n">
         <v>1472</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>1.437046457796114</v>
+        <v>1.437046702624457</v>
       </c>
       <c r="D44" t="n">
-        <v>1.501951814983856</v>
+        <v>1.501952161535281</v>
       </c>
       <c r="E44" t="n">
         <v>1392</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>1.376052797621871</v>
+        <v>1.376053050161267</v>
       </c>
       <c r="D45" t="n">
-        <v>1.428046864211716</v>
+        <v>1.428047287053424</v>
       </c>
       <c r="E45" t="n">
         <v>1235</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>1.317397275463974</v>
+        <v>1.317397617326991</v>
       </c>
       <c r="D46" t="n">
-        <v>1.315879943192129</v>
+        <v>1.315880578942287</v>
       </c>
       <c r="E46" t="n">
         <v>1019</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>1.057769277428422</v>
+        <v>1.057769836949209</v>
       </c>
       <c r="D47" t="n">
-        <v>1.215743157886324</v>
+        <v>1.215743978963617</v>
       </c>
       <c r="E47" t="n">
         <v>734</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.895241151850083</v>
+        <v>0.8952420016399374</v>
       </c>
       <c r="D48" t="n">
-        <v>1.137423283492765</v>
+        <v>1.137424173813217</v>
       </c>
       <c r="E48" t="n">
         <v>451</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7065746747268984</v>
+        <v>0.7065749548679048</v>
       </c>
       <c r="D49" t="n">
-        <v>1.148266318916395</v>
+        <v>1.148266480210033</v>
       </c>
       <c r="E49" t="n">
         <v>194</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7394028611841493</v>
+        <v>0.7394021404911161</v>
       </c>
       <c r="D50" t="n">
-        <v>1.401531649329043</v>
+        <v>1.401531549554821</v>
       </c>
       <c r="E50" t="n">
         <v>48</v>

--- a/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdpt_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.511179840453162</v>
+        <v>1.511180017033974</v>
       </c>
       <c r="D2" t="n">
-        <v>1.615307433936272</v>
+        <v>1.615307630718741</v>
       </c>
       <c r="E2" t="n">
         <v>1977</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.511971874031777</v>
+        <v>1.511972050612821</v>
       </c>
       <c r="D3" t="n">
-        <v>1.616003063085819</v>
+        <v>1.616003259982703</v>
       </c>
       <c r="E3" t="n">
         <v>1975</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>1.511971874031777</v>
+        <v>1.511972050612821</v>
       </c>
       <c r="D4" t="n">
-        <v>1.616003063085819</v>
+        <v>1.616003259982703</v>
       </c>
       <c r="E4" t="n">
         <v>1975</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>1.512444571278213</v>
+        <v>1.512444747764325</v>
       </c>
       <c r="D5" t="n">
-        <v>1.616739524032188</v>
+        <v>1.616739721042682</v>
       </c>
       <c r="E5" t="n">
         <v>1973</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>1.512672954792626</v>
+        <v>1.512673131272572</v>
       </c>
       <c r="D6" t="n">
-        <v>1.616709948856434</v>
+        <v>1.616710145965397</v>
       </c>
       <c r="E6" t="n">
         <v>1972</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>1.512672954792626</v>
+        <v>1.512673131272572</v>
       </c>
       <c r="D7" t="n">
-        <v>1.616709948856434</v>
+        <v>1.616710145965397</v>
       </c>
       <c r="E7" t="n">
         <v>1972</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>1.512672954792626</v>
+        <v>1.512673131272572</v>
       </c>
       <c r="D8" t="n">
-        <v>1.616709948856434</v>
+        <v>1.616710145965397</v>
       </c>
       <c r="E8" t="n">
         <v>1972</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>1.512672954792626</v>
+        <v>1.512673131272572</v>
       </c>
       <c r="D9" t="n">
-        <v>1.616709948856434</v>
+        <v>1.616710145965397</v>
       </c>
       <c r="E9" t="n">
         <v>1972</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>1.512672954792626</v>
+        <v>1.512673131272572</v>
       </c>
       <c r="D10" t="n">
-        <v>1.616709948856434</v>
+        <v>1.616710145965397</v>
       </c>
       <c r="E10" t="n">
         <v>1972</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>1.513929141809105</v>
+        <v>1.513929318291644</v>
       </c>
       <c r="D11" t="n">
-        <v>1.617119746641908</v>
+        <v>1.617119943800775</v>
       </c>
       <c r="E11" t="n">
         <v>1971</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>1.513929141809105</v>
+        <v>1.513929318291644</v>
       </c>
       <c r="D12" t="n">
-        <v>1.617119746641908</v>
+        <v>1.617119943800775</v>
       </c>
       <c r="E12" t="n">
         <v>1971</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>1.514310474007827</v>
+        <v>1.514310650490603</v>
       </c>
       <c r="D13" t="n">
-        <v>1.617524742165059</v>
+        <v>1.617524939376316</v>
       </c>
       <c r="E13" t="n">
         <v>1970</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>1.516064537057717</v>
+        <v>1.516064713551517</v>
       </c>
       <c r="D14" t="n">
-        <v>1.61888995003701</v>
+        <v>1.618890147488897</v>
       </c>
       <c r="E14" t="n">
         <v>1966</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>1.515472189493061</v>
+        <v>1.515472365984638</v>
       </c>
       <c r="D15" t="n">
-        <v>1.617603110560955</v>
+        <v>1.617603308367054</v>
       </c>
       <c r="E15" t="n">
         <v>1964</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>1.51391952847124</v>
+        <v>1.513919704987685</v>
       </c>
       <c r="D16" t="n">
-        <v>1.616076246259712</v>
+        <v>1.616076444557501</v>
       </c>
       <c r="E16" t="n">
         <v>1961</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>1.514874967177396</v>
+        <v>1.514875143691082</v>
       </c>
       <c r="D17" t="n">
-        <v>1.617469127125469</v>
+        <v>1.617469325663649</v>
       </c>
       <c r="E17" t="n">
         <v>1957</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>1.515748584332907</v>
+        <v>1.515748763616178</v>
       </c>
       <c r="D18" t="n">
-        <v>1.618061153520821</v>
+        <v>1.618061354792941</v>
       </c>
       <c r="E18" t="n">
         <v>1955</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>1.510429497213627</v>
+        <v>1.510429676888381</v>
       </c>
       <c r="D19" t="n">
-        <v>1.614010943321308</v>
+        <v>1.614011145970399</v>
       </c>
       <c r="E19" t="n">
         <v>1949</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>1.51317272509194</v>
+        <v>1.513172905695529</v>
       </c>
       <c r="D20" t="n">
-        <v>1.614743221775179</v>
+        <v>1.614743426069531</v>
       </c>
       <c r="E20" t="n">
         <v>1946</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>1.514665035663081</v>
+        <v>1.514665216269276</v>
       </c>
       <c r="D21" t="n">
-        <v>1.61558529156696</v>
+        <v>1.615585496072764</v>
       </c>
       <c r="E21" t="n">
         <v>1943</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>1.514542306649748</v>
+        <v>1.514542487288735</v>
       </c>
       <c r="D22" t="n">
-        <v>1.614785214020737</v>
+        <v>1.614785418809015</v>
       </c>
       <c r="E22" t="n">
         <v>1942</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>1.518174092945958</v>
+        <v>1.518174274226925</v>
       </c>
       <c r="D23" t="n">
-        <v>1.615473975549777</v>
+        <v>1.61547418193397</v>
       </c>
       <c r="E23" t="n">
         <v>1938</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>1.51299939715545</v>
+        <v>1.512999578533508</v>
       </c>
       <c r="D24" t="n">
-        <v>1.610220704255095</v>
+        <v>1.610220911708222</v>
       </c>
       <c r="E24" t="n">
         <v>1934</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>1.509901917216961</v>
+        <v>1.509902098698619</v>
       </c>
       <c r="D25" t="n">
-        <v>1.603627797788587</v>
+        <v>1.603628006914363</v>
       </c>
       <c r="E25" t="n">
         <v>1925</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>1.498443515308484</v>
+        <v>1.498443696681959</v>
       </c>
       <c r="D26" t="n">
-        <v>1.599852431290684</v>
+        <v>1.599852641574611</v>
       </c>
       <c r="E26" t="n">
         <v>1918</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>1.500660556962412</v>
+        <v>1.50066073849187</v>
       </c>
       <c r="D27" t="n">
-        <v>1.599873301744966</v>
+        <v>1.599873514134029</v>
       </c>
       <c r="E27" t="n">
         <v>1908</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>1.505725507486379</v>
+        <v>1.505725678551511</v>
       </c>
       <c r="D28" t="n">
-        <v>1.60077110575724</v>
+        <v>1.600771316815261</v>
       </c>
       <c r="E28" t="n">
         <v>1903</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>1.498661830122592</v>
+        <v>1.498662027316113</v>
       </c>
       <c r="D29" t="n">
-        <v>1.599568724442489</v>
+        <v>1.599568952345679</v>
       </c>
       <c r="E29" t="n">
         <v>1896</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>1.490595000409276</v>
+        <v>1.49059519353035</v>
       </c>
       <c r="D30" t="n">
-        <v>1.600093373915073</v>
+        <v>1.600093609715335</v>
       </c>
       <c r="E30" t="n">
         <v>1878</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>1.479211576457861</v>
+        <v>1.479211720093617</v>
       </c>
       <c r="D31" t="n">
-        <v>1.59884072330736</v>
+        <v>1.598840955835741</v>
       </c>
       <c r="E31" t="n">
         <v>1861</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>1.473605694724439</v>
+        <v>1.473605805295361</v>
       </c>
       <c r="D32" t="n">
-        <v>1.59861998907964</v>
+        <v>1.598620235246123</v>
       </c>
       <c r="E32" t="n">
         <v>1849</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>1.45862113485281</v>
+        <v>1.458621235604254</v>
       </c>
       <c r="D33" t="n">
-        <v>1.599162280878559</v>
+        <v>1.599162528368474</v>
       </c>
       <c r="E33" t="n">
         <v>1834</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>1.414671499595326</v>
+        <v>1.414671600175539</v>
       </c>
       <c r="D34" t="n">
-        <v>1.599417613735324</v>
+        <v>1.599417862535112</v>
       </c>
       <c r="E34" t="n">
         <v>1826</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>1.402162259839286</v>
+        <v>1.402162329090104</v>
       </c>
       <c r="D35" t="n">
-        <v>1.597281164957033</v>
+        <v>1.59728141570378</v>
       </c>
       <c r="E35" t="n">
         <v>1814</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>1.404133819514592</v>
+        <v>1.404133873240307</v>
       </c>
       <c r="D36" t="n">
-        <v>1.60395445871751</v>
+        <v>1.603954725070575</v>
       </c>
       <c r="E36" t="n">
         <v>1782</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>1.384411320634184</v>
+        <v>1.384411523272089</v>
       </c>
       <c r="D37" t="n">
-        <v>1.606798496091808</v>
+        <v>1.606798796636727</v>
       </c>
       <c r="E37" t="n">
         <v>1763</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>1.394248164925956</v>
+        <v>1.394248349206581</v>
       </c>
       <c r="D38" t="n">
-        <v>1.610332200011255</v>
+        <v>1.610332505119498</v>
       </c>
       <c r="E38" t="n">
         <v>1733</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>1.336372039379732</v>
+        <v>1.336372357631145</v>
       </c>
       <c r="D39" t="n">
-        <v>1.605934317991185</v>
+        <v>1.605934630385157</v>
       </c>
       <c r="E39" t="n">
         <v>1711</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>1.341725960811033</v>
+        <v>1.341726270122035</v>
       </c>
       <c r="D40" t="n">
-        <v>1.603339830580408</v>
+        <v>1.603340109150117</v>
       </c>
       <c r="E40" t="n">
         <v>1676</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>1.382697166812757</v>
+        <v>1.382697479913119</v>
       </c>
       <c r="D41" t="n">
-        <v>1.607803979290581</v>
+        <v>1.60780421492184</v>
       </c>
       <c r="E41" t="n">
         <v>1619</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>1.365965521085989</v>
+        <v>1.36596582508996</v>
       </c>
       <c r="D42" t="n">
-        <v>1.603425076958344</v>
+        <v>1.603425274741177</v>
       </c>
       <c r="E42" t="n">
         <v>1548</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>1.397086724064075</v>
+        <v>1.39708701493498</v>
       </c>
       <c r="D43" t="n">
-        <v>1.560340105641029</v>
+        <v>1.56034020160704</v>
       </c>
       <c r="E43" t="n">
         <v>1472</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>1.437046702624457</v>
+        <v>1.437046957470507</v>
       </c>
       <c r="D44" t="n">
-        <v>1.501952161535281</v>
+        <v>1.501952233211007</v>
       </c>
       <c r="E44" t="n">
         <v>1392</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>1.376053050161267</v>
+        <v>1.376053310584767</v>
       </c>
       <c r="D45" t="n">
-        <v>1.428047287053424</v>
+        <v>1.428047376630379</v>
       </c>
       <c r="E45" t="n">
         <v>1235</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>1.317397617326991</v>
+        <v>1.317397818666391</v>
       </c>
       <c r="D46" t="n">
-        <v>1.315880578942287</v>
+        <v>1.31588059948186</v>
       </c>
       <c r="E46" t="n">
         <v>1019</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>1.057769836949209</v>
+        <v>1.057769529998623</v>
       </c>
       <c r="D47" t="n">
-        <v>1.215743978963617</v>
+        <v>1.215743846729235</v>
       </c>
       <c r="E47" t="n">
         <v>734</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8952420016399374</v>
+        <v>0.895241905918383</v>
       </c>
       <c r="D48" t="n">
-        <v>1.137424173813217</v>
+        <v>1.137424096182119</v>
       </c>
       <c r="E48" t="n">
         <v>451</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7065749548679048</v>
+        <v>0.70657508314891</v>
       </c>
       <c r="D49" t="n">
-        <v>1.148266480210033</v>
+        <v>1.148266305878147</v>
       </c>
       <c r="E49" t="n">
         <v>194</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7394021404911161</v>
+        <v>0.7394022245763981</v>
       </c>
       <c r="D50" t="n">
-        <v>1.401531549554821</v>
+        <v>1.401531590614358</v>
       </c>
       <c r="E50" t="n">
         <v>48</v>
